--- a/data/trans_orig/Predimed_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Predimed_R-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>84711</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>68274</v>
+        <v>69875</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>101482</v>
+        <v>101206</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.163920472223395</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1321140882736451</v>
+        <v>0.1352118083071735</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.196372731119218</v>
+        <v>0.195838114123191</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>201</v>
@@ -762,19 +762,19 @@
         <v>120669</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>106461</v>
+        <v>105252</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>135842</v>
+        <v>137500</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1582159559558558</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1395871989783906</v>
+        <v>0.1380020098480882</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1781109200544722</v>
+        <v>0.1802838823246673</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>304</v>
@@ -783,19 +783,19 @@
         <v>205380</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>182697</v>
+        <v>184811</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>228601</v>
+        <v>230431</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1605200391812862</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.142791743736946</v>
+        <v>0.1444433775479317</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1786691172921278</v>
+        <v>0.1800990347948434</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>432072</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>415301</v>
+        <v>415577</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>448509</v>
+        <v>446908</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8360795277766051</v>
+        <v>0.836079527776605</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8036272688807818</v>
+        <v>0.8041618858768089</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8678859117263549</v>
+        <v>0.8647881916928265</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1111</v>
@@ -833,19 +833,19 @@
         <v>642015</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>626842</v>
+        <v>625184</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>656223</v>
+        <v>657432</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8417840440441443</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8218890799455278</v>
+        <v>0.8197161176753328</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8604128010216098</v>
+        <v>0.8619979901519119</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1638</v>
@@ -854,19 +854,19 @@
         <v>1074087</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1050866</v>
+        <v>1049036</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1096770</v>
+        <v>1094656</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8394799608187136</v>
+        <v>0.8394799608187138</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8213308827078716</v>
+        <v>0.8199009652051563</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.857208256263054</v>
+        <v>0.855556622452068</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>334435</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>295088</v>
+        <v>300496</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>371120</v>
+        <v>369045</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1617251989704442</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1426975009332673</v>
+        <v>0.1453129455395716</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1794652303539546</v>
+        <v>0.1784615364485617</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>571</v>
@@ -979,19 +979,19 @@
         <v>384726</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>350274</v>
+        <v>353880</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>418436</v>
+        <v>418475</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1885647978415962</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1716788785068302</v>
+        <v>0.1734459205961989</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2050867807615471</v>
+        <v>0.2051058145317495</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>899</v>
@@ -1000,19 +1000,19 @@
         <v>719162</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>674306</v>
+        <v>672471</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>767468</v>
+        <v>771549</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1750547238885139</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1641361945083498</v>
+        <v>0.1636893666937732</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1868131304343222</v>
+        <v>0.187806405323393</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1733489</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1696804</v>
+        <v>1698879</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1772836</v>
+        <v>1767428</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8382748010295558</v>
+        <v>0.8382748010295556</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8205347696460454</v>
+        <v>0.8215384635514381</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8573024990667328</v>
+        <v>0.8546870544604284</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2207</v>
@@ -1050,19 +1050,19 @@
         <v>1655562</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1621852</v>
+        <v>1621813</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1690014</v>
+        <v>1686408</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8114352021584036</v>
+        <v>0.8114352021584037</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7949132192384528</v>
+        <v>0.7948941854682506</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8283211214931682</v>
+        <v>0.8265540794038013</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3764</v>
@@ -1071,19 +1071,19 @@
         <v>3389050</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3340744</v>
+        <v>3336663</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3433906</v>
+        <v>3435741</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.824945276111486</v>
+        <v>0.8249452761114859</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.813186869565678</v>
+        <v>0.812193594676607</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8358638054916501</v>
+        <v>0.8363106333062268</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>155776</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>129937</v>
+        <v>133025</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>180635</v>
+        <v>181733</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2282499960510801</v>
+        <v>0.2282499960510802</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1903891491526969</v>
+        <v>0.1949135237518214</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2646738490073349</v>
+        <v>0.2662831707638962</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>213</v>
@@ -1196,19 +1196,19 @@
         <v>157666</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>138657</v>
+        <v>138961</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>178151</v>
+        <v>178330</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2241585897759053</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1971331916793458</v>
+        <v>0.1975653113136302</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2532837817361018</v>
+        <v>0.2535376270582755</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>352</v>
@@ -1217,19 +1217,19 @@
         <v>313442</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>282991</v>
+        <v>284405</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>345898</v>
+        <v>348415</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2261734636298758</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2042007084484343</v>
+        <v>0.2052212662483223</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2495934236169227</v>
+        <v>0.251409696755177</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>526705</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>501846</v>
+        <v>500748</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>552544</v>
+        <v>549456</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7717500039489199</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.735326150992665</v>
+        <v>0.7337168292361036</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8096108508473029</v>
+        <v>0.8050864762481788</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>754</v>
@@ -1267,19 +1267,19 @@
         <v>545700</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>525215</v>
+        <v>525036</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>564709</v>
+        <v>564405</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7758414102240947</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7467162182638981</v>
+        <v>0.7464623729417245</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8028668083206544</v>
+        <v>0.8024346886863698</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1267</v>
@@ -1288,19 +1288,19 @@
         <v>1072404</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1039948</v>
+        <v>1037431</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1102855</v>
+        <v>1101441</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7738265363701241</v>
+        <v>0.7738265363701242</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7504065763830774</v>
+        <v>0.7485903032448232</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7957992915515658</v>
+        <v>0.7947787337516776</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>574923</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>528328</v>
+        <v>528765</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>621317</v>
+        <v>624133</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1759687540856294</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1617071273764395</v>
+        <v>0.1618409650694229</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1901687840045349</v>
+        <v>0.1910305668003261</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>985</v>
@@ -1413,19 +1413,19 @@
         <v>663061</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>626840</v>
+        <v>623436</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>704402</v>
+        <v>704773</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1891035040046364</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1787733247097128</v>
+        <v>0.1778026103862713</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2008937961479823</v>
+        <v>0.2009996669771519</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1555</v>
@@ -1434,19 +1434,19 @@
         <v>1237984</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1182313</v>
+        <v>1177369</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1296825</v>
+        <v>1302191</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1827680003618399</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1745491334191129</v>
+        <v>0.1738192126528993</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.191454954668366</v>
+        <v>0.1922471152036578</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>2692265</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2645871</v>
+        <v>2643055</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2738860</v>
+        <v>2738423</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8240312459143705</v>
+        <v>0.8240312459143706</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8098312159954659</v>
+        <v>0.8089694331996743</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8382928726235606</v>
+        <v>0.8381590349305775</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4072</v>
@@ -1484,19 +1484,19 @@
         <v>2843277</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2801936</v>
+        <v>2801565</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2879498</v>
+        <v>2882902</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8108964959953636</v>
+        <v>0.8108964959953635</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7991062038520179</v>
+        <v>0.7990003330228486</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8212266752902873</v>
+        <v>0.8221973896137293</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6669</v>
@@ -1505,19 +1505,19 @@
         <v>5535542</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5476701</v>
+        <v>5471335</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5591213</v>
+        <v>5596157</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.81723199963816</v>
+        <v>0.8172319996381601</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8085450453316338</v>
+        <v>0.8077528847963422</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8254508665808872</v>
+        <v>0.8261807873471008</v>
       </c>
     </row>
     <row r="15">
